--- a/data/matrix/CuencasAnalisis.xlsx
+++ b/data/matrix/CuencasAnalisis.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,9 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
-    <t xml:space="preserve">CANT</t>
+    <t xml:space="preserve">MC</t>
   </si>
   <si>
     <t xml:space="preserve">CUENCA    (IDEAM)</t>
@@ -114,6 +115,156 @@
   <si>
     <t xml:space="preserve">CUENCA                                                                                     RÍO GUAVIARE - 4</t>
   </si>
+  <si>
+    <t xml:space="preserve">MACRO BASIN NAMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASIN    (IDEAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO META - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO META - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO VAUPES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO ATRATO -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO ATRATO - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO GUAVIARE -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO GUAVIARE -2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO GUAVIARE - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macro Basin 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO META - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUENCA RÍO GUAVIARE - 4</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +274,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,8 +305,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,7 +322,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFDEEBF7"/>
+        <bgColor rgb="FFE0EFD4"/>
       </patternFill>
     </fill>
     <fill>
@@ -192,8 +349,14 @@
         <bgColor rgb="FFFBE5D6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EFD4"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -229,6 +392,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -255,7 +425,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -412,6 +582,54 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -456,8 +674,8 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE2F0D9"/>
+      <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -491,10 +709,10 @@
   </sheetPr>
   <dimension ref="A1:AF163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1500,7 +1718,7 @@
       </c>
       <c r="T19" s="2" t="n">
         <f aca="false">S19/(S18+S19)</f>
-        <v>0.659697888593182</v>
+        <v>0.659697888593181</v>
       </c>
       <c r="U19" s="2" t="n">
         <f aca="false">T18+T19</f>
@@ -1953,7 +2171,7 @@
       </c>
       <c r="S28" s="21" t="n">
         <f aca="false">1/R28</f>
-        <v>4.6375545326712</v>
+        <v>4.63755453267119</v>
       </c>
       <c r="T28" s="2" t="n">
         <f aca="false">S28/(S28+S29)</f>
@@ -4044,7 +4262,7 @@
       <c r="P76" s="25"/>
       <c r="R76" s="3" t="n">
         <f aca="false">((E75-L76)^2+(F75-M76)^2)^(1/2)</f>
-        <v>0.982697645467688</v>
+        <v>0.982697645467689</v>
       </c>
       <c r="S76" s="21" t="n">
         <f aca="false">1/R76</f>
@@ -4289,7 +4507,7 @@
       </c>
       <c r="T84" s="2" t="n">
         <f aca="false">S84/(S75+S76+S77+S78+S83+S84)</f>
-        <v>0.159471260448348</v>
+        <v>0.159471260448347</v>
       </c>
       <c r="U84" s="27" t="n">
         <f aca="false">T75+T76+T77+T78+T83+T84</f>
@@ -6572,4 +6790,1262 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G86"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A80" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E91" activeCellId="0" sqref="E91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="1.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="27.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="40" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="44" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="44" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="42" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="42"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="44" t="n">
+        <v>24</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="42" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="44" t="n">
+        <v>28</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="45" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="42" t="n">
+        <v>30</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="45" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="44" t="n">
+        <v>36</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="45" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="42" t="n">
+        <v>42</v>
+      </c>
+      <c r="E12" s="40" t="n">
+        <v>41</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="42" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="44" t="n">
+        <v>44</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="42" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="40"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="44"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="42" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="45" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="42" t="n">
+        <v>46</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="42" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="45" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="44" t="n">
+        <v>51</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="42" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="40" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="42" t="n">
+        <v>65</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="42" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="40"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="42"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="42" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="44" t="n">
+        <v>69</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="42" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="40"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="44"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="42" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="40"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="44"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="42" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="40" t="n">
+        <v>15</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="42" t="n">
+        <v>72</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="42" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="40"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="42"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="42" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="40" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="44" t="n">
+        <v>75</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="42" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="40"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="44"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="42" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="40"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="44"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="42" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="40" t="n">
+        <v>17</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="42" t="n">
+        <v>86</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="42" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="40"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="42"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="42" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="45" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="44" t="n">
+        <v>87</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="42" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="40" t="n">
+        <v>19</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="42" t="n">
+        <v>89</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="42" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="42"/>
+      <c r="E31" s="40" t="n">
+        <v>42</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="49" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="40" t="n">
+        <v>20</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="44" t="n">
+        <v>93</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="49" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="40"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="44"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="49" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="40"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="44"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="49" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="27.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="45" t="n">
+        <v>21</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="42" t="n">
+        <v>103</v>
+      </c>
+      <c r="E38" s="40" t="n">
+        <v>43</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="50" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="45" t="n">
+        <v>22</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="44" t="n">
+        <v>140</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="50" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="45" t="n">
+        <v>23</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="42" t="n">
+        <v>146</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="50" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="40" t="n">
+        <v>24</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="44" t="n">
+        <v>154</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="50" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="40"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="44"/>
+      <c r="E42" s="40" t="n">
+        <v>44</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="49" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="45" t="n">
+        <v>25</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="42" t="n">
+        <v>155</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="49" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="45" t="n">
+        <v>26</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="44" t="n">
+        <v>166</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="49" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="45" t="n">
+        <v>27</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="42" t="n">
+        <v>167</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="49" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="45" t="n">
+        <v>28</v>
+      </c>
+      <c r="B46" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="44" t="n">
+        <v>179</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="49" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="45" t="n">
+        <v>29</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="42" t="n">
+        <v>197</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="49" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="40" t="n">
+        <v>30</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="44" t="n">
+        <v>243</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="49" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="40"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="44"/>
+      <c r="E49" s="40" t="n">
+        <v>45</v>
+      </c>
+      <c r="F49" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="50" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="45" t="n">
+        <v>31</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="42" t="n">
+        <v>245</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="50" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="45" t="n">
+        <v>32</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="44" t="n">
+        <v>246</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="50" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="45" t="n">
+        <v>33</v>
+      </c>
+      <c r="B52" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="42" t="n">
+        <v>252</v>
+      </c>
+      <c r="E52" s="40" t="n">
+        <v>46</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="49" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="40" t="n">
+        <v>34</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="44" t="n">
+        <v>260</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="49" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="40"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="44"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="49" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="40"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="44"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="49" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="40" t="n">
+        <v>35</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="42" t="n">
+        <v>262</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="49" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="40"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="42"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="40"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="42"/>
+      <c r="E58" s="40" t="n">
+        <v>47</v>
+      </c>
+      <c r="F58" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="50" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="40" t="n">
+        <v>36</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="44" t="n">
+        <v>295</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="50" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="40"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="44"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="50" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="40"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="44"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="50" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="42" t="n">
+        <v>299</v>
+      </c>
+      <c r="E62" s="40"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="50" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="40"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="42"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="50"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="40"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="42"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="50" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="44" t="n">
+        <v>303</v>
+      </c>
+      <c r="E65" s="40"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="50" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="40"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="44"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="50" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="42" t="n">
+        <v>142</v>
+      </c>
+      <c r="E67" s="40"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="50" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="40"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="42" t="n">
+        <v>143</v>
+      </c>
+      <c r="E68" s="40"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="50" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="40"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="42" t="n">
+        <v>144</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="50" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="40"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="42" t="n">
+        <v>146</v>
+      </c>
+      <c r="E70" s="40" t="n">
+        <v>48</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="49" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="40"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="42" t="n">
+        <v>147</v>
+      </c>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="49" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="40"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="42" t="n">
+        <v>148</v>
+      </c>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="49" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="40"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="42" t="n">
+        <v>149</v>
+      </c>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="49" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="40"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="42" t="n">
+        <v>304</v>
+      </c>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="49" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E75" s="40"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="49"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="49" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="49" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="49" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="40"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="49" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="49" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="40"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="49" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="49" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="49" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="49" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="49" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="71">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E11"/>
+    <mergeCell ref="F2:F11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E12:E30"/>
+    <mergeCell ref="F12:F30"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E42:E48"/>
+    <mergeCell ref="F42:F48"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="E52:E57"/>
+    <mergeCell ref="F52:F57"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="E58:E69"/>
+    <mergeCell ref="F58:F69"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A67:A74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="E70:E85"/>
+    <mergeCell ref="F70:F85"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>